--- a/data/hotels_by_city/Houston/Houston_shard_571.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_571.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1556786-Reviews-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-Suites-Highway-290NW-Freeway.h2955828.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531619783164&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=7c8f52ce-b248-408c-b7f3-12b972c7f921&amp;mctc=9&amp;exp_dp=67.99&amp;exp_ts=1531619783714&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,482 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r578684844-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1556786</t>
+  </si>
+  <si>
+    <t>578684844</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Clean,comfortable and friendly service...</t>
+  </si>
+  <si>
+    <t>As Choice Hotels Privilege members we always try to stay at their properties when we travel so we're familiar with their standards. This Sleep Inn did not disappoint. It was clean, comfortable and all staff members we came in to contact with were friendly and efficient. I would have preferred a more central location but it was next to one of the many freeways so that helped when trying to get to different parts of the city. I would advise to check location and what your plans are while in Houston to make sure this Sleep Inn is the right choice,other than that I would definitely recommend this property for a good night's sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>As Choice Hotels Privilege members we always try to stay at their properties when we travel so we're familiar with their standards. This Sleep Inn did not disappoint. It was clean, comfortable and all staff members we came in to contact with were friendly and efficient. I would have preferred a more central location but it was next to one of the many freeways so that helped when trying to get to different parts of the city. I would advise to check location and what your plans are while in Houston to make sure this Sleep Inn is the right choice,other than that I would definitely recommend this property for a good night's sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r572903427-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572903427</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Great Staff; Great stay</t>
+  </si>
+  <si>
+    <t>I was a little hesitant about this place at first when I booked. I was coming in for business and I wanted a place close to my customer. There were several options to choose from and this place was one of the least expensive so that can sometimes be a red flag. I was very pleasantly surprised though.  The room was clean and the staff was great.  Mudit Sharma who was on duty really went out of his way to help me with anything I asked for.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r553064628-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553064628</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Good value, brilliant staff and decent amenities.</t>
+  </si>
+  <si>
+    <t>Currently staying here on a brief business visit to Houston. I've found the hotel staff to be very polite and friendly. Denise welcomed us cheerfully and gave us plenty of recommendations and usefull advise for our stay. They provide a complentary breakfast and for other meals there are numerous food houses within walking distance. If you're after good value and the renouned southern hospitality, look no further.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r471279636-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471279636</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Good value, good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have stayed here a number of times. Well kept, modern, with a fridge/freezer that freezes ice packs, a microwave, and decent WiFi. Beds are comfortable, and the staff is friendly. Only gripe: desk chairs are pretty beat up. Mgmt tells me they are being replaced slowly, as they don't have storage space to assemble them all at once. Close to many decent restaurants, from Dennys to Pappadeaux. One caveat: 290 is under construction, making the commute to downtown or out to Cypress, difficult at times, depending on time of day. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r469273889-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469273889</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT!</t>
+  </si>
+  <si>
+    <t>This hotel was everything we didn't expect. We booked for a weekend to just get away and have a place to rest our heads. We were OVERLY impressed to say the least. Great staff, Clean rooms, Comfy Beds, Updated, Parking lot well lit for sense of great security, and a Great Selection for breakfast. It is located near several restaurant which Brick Tavern was amazing, shopping, a theater, and a target. We couldn't have asked for a better place to stay while we were in Houston. This will be my number one choice hotel anytime I am visiting Houston. The only thing I had issues with was the WiFi not working. It'd connect but would never let you open anything weather it be an app or a website. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel was everything we didn't expect. We booked for a weekend to just get away and have a place to rest our heads. We were OVERLY impressed to say the least. Great staff, Clean rooms, Comfy Beds, Updated, Parking lot well lit for sense of great security, and a Great Selection for breakfast. It is located near several restaurant which Brick Tavern was amazing, shopping, a theater, and a target. We couldn't have asked for a better place to stay while we were in Houston. This will be my number one choice hotel anytime I am visiting Houston. The only thing I had issues with was the WiFi not working. It'd connect but would never let you open anything weather it be an app or a website. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r458516065-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458516065</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Lots of Positives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spent 4 nights here this week and it was a great experience.  I had a King room and it was very spacious, clean, well kept, modern, quiet, and had a huge TV.  The entire hotel was very well kept and clean. The price was very affortable.  It's close (walking distance) to A LOT of restaurants and near the highway.  </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r384111770-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384111770</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>One of the best on our trip.</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel at night and there was a lot of road construction going on around Houston and it made it difficult to get to the hotel. There was a lot of restaurants close by for us to choose from to eat at, which was great.Check in was easy as can be. My wife and I were really pleased with the cleanliness of the room. The Bathroom was also clean and ready for us to use. Our room was a non smoking room, I am not sure if all rooms are non smoking or not. In the morning we went to breakfast on the 1st floor. The were well organized, clean and had plenty of food for everyone.The only thing that was wrong with the room was the one picture that was not level above the bed. I feel this hotel was a great choice for us and I am sure it will be for you too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We arrived to the hotel at night and there was a lot of road construction going on around Houston and it made it difficult to get to the hotel. There was a lot of restaurants close by for us to choose from to eat at, which was great.Check in was easy as can be. My wife and I were really pleased with the cleanliness of the room. The Bathroom was also clean and ready for us to use. Our room was a non smoking room, I am not sure if all rooms are non smoking or not. In the morning we went to breakfast on the 1st floor. The were well organized, clean and had plenty of food for everyone.The only thing that was wrong with the room was the one picture that was not level above the bed. I feel this hotel was a great choice for us and I am sure it will be for you too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r372934653-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372934653</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Cheap, you get what you paid for</t>
+  </si>
+  <si>
+    <t>Just a 2 night short stay in Houston to visit family before heading to Galveston Island vacation.  My husband booked through AARP. We needed 2 rooms 1 for us and 1 for my mother in law who is handicapped.  The bed in her room was so high, my husband had to pick her up and put her to bed, our room smelled so bad it was intolerable!! Smelled like wet dirty moldy towels! I don't care what you say, you pay for a cheap hotel you get a cheap hotel.  I had to put Vicks in my nose to fall asleep the smell was so bad, we didn't ask for a room change bc we had to be close to my mother in law and our room was directly across from her.I would not recommend nor ever stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Just a 2 night short stay in Houston to visit family before heading to Galveston Island vacation.  My husband booked through AARP. We needed 2 rooms 1 for us and 1 for my mother in law who is handicapped.  The bed in her room was so high, my husband had to pick her up and put her to bed, our room smelled so bad it was intolerable!! Smelled like wet dirty moldy towels! I don't care what you say, you pay for a cheap hotel you get a cheap hotel.  I had to put Vicks in my nose to fall asleep the smell was so bad, we didn't ask for a room change bc we had to be close to my mother in law and our room was directly across from her.I would not recommend nor ever stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r370439111-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370439111</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Perfect location, near many restaurants.</t>
+  </si>
+  <si>
+    <t>The hotel is very close to my office along with plenty of restaurants. Room was clean and even though I arrived early they were able to check me in. Well maintained property and plenty of parking and breakfast was good. Definitely recommend it for business travelers. Will stay here again next time I'm in Houston.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r281703275-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281703275</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location.  </t>
+  </si>
+  <si>
+    <t>Property is back from the north bound feeder road so noise is not an issue.  The property is well maintained and parking is possible in the movie theater parking lot. There are many choices for restaurants along the feeder road. Breakfast is good, and bed comfortable. Would stay again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r267150544-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267150544</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Nice property in so so neighborhoo</t>
+  </si>
+  <si>
+    <t>This is a very modern well equipped motel with very nice gym,  pool area and breakfast room. It is located pretty much all by itself off of US 290 which is under extensive reconstruction making access difficult. There is also lots of road noise at night..The only problem, very minor, was that the clock in the gym was dead for lack of a battery and stuck on January 2, indicating a lack of attention to detail. The water fountain in the gym did not work but there was one nearby in the hallway.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r207610268-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207610268</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>VERY nice - Great location -- clean and comfy</t>
+  </si>
+  <si>
+    <t>Being longtime Choice Hotel privilege members, we normally stay at Comfort Suites, but on this occasion ended up booking the Sleep Inn thinking -- "it's only one night."  Right away I was impressed with the look/feel/cleanliness and a late night clerk whose first language is English.  It's a great location, near several great restaurants -- including our favorite, Papadeaux.  Room was clean and comfortable, with a great bed.   Breakfast was slightly inadequate, but that's typical of continental breakfasts at any choice hotel.  Certainly did not notice any moth ball smells.  Wouldn't hesitate to book this hotel again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r186768490-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186768490</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great value and clean rooms</t>
+  </si>
+  <si>
+    <t>This hotel was ideally located from my family's home.  I was able to walk there and visit them.  The rooms were very clean, service was prompt and friendly.  Breakfast was free and reasonable.  Wifi was in and out but enough to check email and stay in touch.It even had a very small exercise room.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r178965799-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178965799</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>Be very careful when you book an online reservation with this hotel. Having a layover at IAH (in 6 weeks), I made an online reservation at this hotel, thinking it was the Sleep in by the airport.  I realized I had booked at the wrong Sleep Inn within 10 minutes and immediately called the hotel directly to cancel or transfer my reservation to the airport Sleep Inn.  I was informed this was a non-refundable reservation and there was nothing they could do at the hotel to cancel, nor change it in any way.  They then offered me the number for Choice customer service for help.  I called Choice and they told me that the only one who could cancel the reservation was the individual hotel where it was made.  Never have I seen a more obvious runaround.I would like to think that the cancellation policy is not intended for people who make an honest mistake and seek to rectify it within minutes.  However, considering that neither Choice nor this individual Sleep Inn claim to to able to help me, I'm starting to think this happens much more often than one would think, and the hotels are cashing in on it quite nicely.  Shame on them!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Be very careful when you book an online reservation with this hotel. Having a layover at IAH (in 6 weeks), I made an online reservation at this hotel, thinking it was the Sleep in by the airport.  I realized I had booked at the wrong Sleep Inn within 10 minutes and immediately called the hotel directly to cancel or transfer my reservation to the airport Sleep Inn.  I was informed this was a non-refundable reservation and there was nothing they could do at the hotel to cancel, nor change it in any way.  They then offered me the number for Choice customer service for help.  I called Choice and they told me that the only one who could cancel the reservation was the individual hotel where it was made.  Never have I seen a more obvious runaround.I would like to think that the cancellation policy is not intended for people who make an honest mistake and seek to rectify it within minutes.  However, considering that neither Choice nor this individual Sleep Inn claim to to able to help me, I'm starting to think this happens much more often than one would think, and the hotels are cashing in on it quite nicely.  Shame on them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r170074359-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170074359</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>I stayed at this Sleep Inn for one night.  Most of Houston was sold out that night, but this hotel still had rooms for an affordable price.  This hotel seems to be brand new!  The first thing I noticed was the front desk staff should be standing up while helping guests. If I, the tired and worn guest, has to stand up while waiting to checking in, you should too. I feel it is unprofessional. The room was very clean and the bathroom was spotless.  I did like the layout of the room.  The work desk and TV are on the same table.  Plenty of lighting.  The walls were dirty and needed to be deep cleaned.  I believe they use the paint that easily reflects marks and damages.  Bed and linens were wonderful and provided a great sleep, true to the hotel's name.  The pool needed to be vacuumed badly as the floor was very dirty with leaves and sand. Other than that, the pool area was nice and relaxing All exterior locks worked.  Plenty of parking.  Also, there are many restaurants nearby within walking distance and a movie theater behind the hotel.  The breakfast was cleaned up at least 15 minutes before the official closing time which is unfortunate and untrue to the signage. This is probably the best hotel for the money in the area and I would stay here again (wish I extended my stay)!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this Sleep Inn for one night.  Most of Houston was sold out that night, but this hotel still had rooms for an affordable price.  This hotel seems to be brand new!  The first thing I noticed was the front desk staff should be standing up while helping guests. If I, the tired and worn guest, has to stand up while waiting to checking in, you should too. I feel it is unprofessional. The room was very clean and the bathroom was spotless.  I did like the layout of the room.  The work desk and TV are on the same table.  Plenty of lighting.  The walls were dirty and needed to be deep cleaned.  I believe they use the paint that easily reflects marks and damages.  Bed and linens were wonderful and provided a great sleep, true to the hotel's name.  The pool needed to be vacuumed badly as the floor was very dirty with leaves and sand. Other than that, the pool area was nice and relaxing All exterior locks worked.  Plenty of parking.  Also, there are many restaurants nearby within walking distance and a movie theater behind the hotel.  The breakfast was cleaned up at least 15 minutes before the official closing time which is unfortunate and untrue to the signage. This is probably the best hotel for the money in the area and I would stay here again (wish I extended my stay)!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r156005723-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156005723</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>All was good until daybreak</t>
+  </si>
+  <si>
+    <t>I was put up here by an airline also, due to a cancled flight.  i arrived late and was checked in effortlessly.  the clerk was very friendly and helpful.  The room was comfortable, clean and well furnished.  I had a good nights sleep.  However, I did not need an alarm clock the next morning.  That is when I find out that the hotel property adjoins that of a kennel.  At 7 in the morning, must have been when the workers showed up, the dogw go crazy with all the barking and howelling.  I was on the third floor and it was bad up there.  When I went down for teh breakfast, it was actually quiter down ther than it was in my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I was put up here by an airline also, due to a cancled flight.  i arrived late and was checked in effortlessly.  the clerk was very friendly and helpful.  The room was comfortable, clean and well furnished.  I had a good nights sleep.  However, I did not need an alarm clock the next morning.  That is when I find out that the hotel property adjoins that of a kennel.  At 7 in the morning, must have been when the workers showed up, the dogw go crazy with all the barking and howelling.  I was on the third floor and it was bad up there.  When I went down for teh breakfast, it was actually quiter down ther than it was in my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r153089261-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153089261</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>a mixed experience</t>
+  </si>
+  <si>
+    <t>king suite, one night.
+check in was effortless.  the desk clerk was helpful and friendly.
+the room was clean and fresh.
+parking is convenient.
+problems:
+1.  the heater did not work.  I informed the desk clerk and asked that it be fixed.  we were not offered a different room.  when we returned around midnight, there was no heat.  I discussed this with the desk clerk on duty at that time he offered a different room.  I declined since my 90 year old father was taking a shower and it would have been difficult for him to pack up and move at late hour.  I think we should have been offered a different room when I first notified them about the lack of heat since maintenace people are not available at night (per the desk clerk) and it was clear there was no one to fix the heater.
+2.  no pillows, sheets or blankets in the room for the sofa bed.  it took 2 trips to the front desk at midnight to get the bedding.  the sofa bed was very uncomfortable.
+I understand that things happen, however when we checked out I left my email address with the desk clerk and asked that the manager contact me about my concerns.  he didn't. 
+the price of the room was raised about $50.00 that night (we were told by the desk clerk) because of the NBA playoffs and I think it would be...king suite, one night.check in was effortless.  the desk clerk was helpful and friendly.the room was clean and fresh.parking is convenient.problems:1.  the heater did not work.  I informed the desk clerk and asked that it be fixed.  we were not offered a different room.  when we returned around midnight, there was no heat.  I discussed this with the desk clerk on duty at that time he offered a different room.  I declined since my 90 year old father was taking a shower and it would have been difficult for him to pack up and move at late hour.  I think we should have been offered a different room when I first notified them about the lack of heat since maintenace people are not available at night (per the desk clerk) and it was clear there was no one to fix the heater.2.  no pillows, sheets or blankets in the room for the sofa bed.  it took 2 trips to the front desk at midnight to get the bedding.  the sofa bed was very uncomfortable.I understand that things happen, however when we checked out I left my email address with the desk clerk and asked that the manager contact me about my concerns.  he didn't. the price of the room was raised about $50.00 that night (we were told by the desk clerk) because of the NBA playoffs and I think it would be reasonable to adjust the rate a little because of the lack of heat on a cold night.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>sleepinn290, Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>king suite, one night.
+check in was effortless.  the desk clerk was helpful and friendly.
+the room was clean and fresh.
+parking is convenient.
+problems:
+1.  the heater did not work.  I informed the desk clerk and asked that it be fixed.  we were not offered a different room.  when we returned around midnight, there was no heat.  I discussed this with the desk clerk on duty at that time he offered a different room.  I declined since my 90 year old father was taking a shower and it would have been difficult for him to pack up and move at late hour.  I think we should have been offered a different room when I first notified them about the lack of heat since maintenace people are not available at night (per the desk clerk) and it was clear there was no one to fix the heater.
+2.  no pillows, sheets or blankets in the room for the sofa bed.  it took 2 trips to the front desk at midnight to get the bedding.  the sofa bed was very uncomfortable.
+I understand that things happen, however when we checked out I left my email address with the desk clerk and asked that the manager contact me about my concerns.  he didn't. 
+the price of the room was raised about $50.00 that night (we were told by the desk clerk) because of the NBA playoffs and I think it would be...king suite, one night.check in was effortless.  the desk clerk was helpful and friendly.the room was clean and fresh.parking is convenient.problems:1.  the heater did not work.  I informed the desk clerk and asked that it be fixed.  we were not offered a different room.  when we returned around midnight, there was no heat.  I discussed this with the desk clerk on duty at that time he offered a different room.  I declined since my 90 year old father was taking a shower and it would have been difficult for him to pack up and move at late hour.  I think we should have been offered a different room when I first notified them about the lack of heat since maintenace people are not available at night (per the desk clerk) and it was clear there was no one to fix the heater.2.  no pillows, sheets or blankets in the room for the sofa bed.  it took 2 trips to the front desk at midnight to get the bedding.  the sofa bed was very uncomfortable.I understand that things happen, however when we checked out I left my email address with the desk clerk and asked that the manager contact me about my concerns.  he didn't. the price of the room was raised about $50.00 that night (we were told by the desk clerk) because of the NBA playoffs and I think it would be reasonable to adjust the rate a little because of the lack of heat on a cold night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r150546063-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150546063</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Will recommend</t>
+  </si>
+  <si>
+    <t>My company has a negotiated rate with a "better known" hotel across the freeway, but it doesn't include breakfast, so this was actually a better deal.  New construction is always nice, and the rooms, common areas and corridors smell clean and are well appointed.The WiFi didn't hold in the breakfast room but I didn't try it in my room.  Breakfast could have been better stocked (no yogurt, cereal and juices were scraping bottom) but I didn't go hungry with the whimsical Texas waffle and bacon (mmmm, meat candy)....  Location is great, there are several restaurants right in front of the hotel.  When you're away from home, it's nice to be able to kick back at a sports bar and walk back to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My company has a negotiated rate with a "better known" hotel across the freeway, but it doesn't include breakfast, so this was actually a better deal.  New construction is always nice, and the rooms, common areas and corridors smell clean and are well appointed.The WiFi didn't hold in the breakfast room but I didn't try it in my room.  Breakfast could have been better stocked (no yogurt, cereal and juices were scraping bottom) but I didn't go hungry with the whimsical Texas waffle and bacon (mmmm, meat candy)....  Location is great, there are several restaurants right in front of the hotel.  When you're away from home, it's nice to be able to kick back at a sports bar and walk back to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r131410189-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131410189</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>Best stay for the money in the area, by far</t>
+  </si>
+  <si>
+    <t>I travel to Houston Northwest area 5-10 days a month on business.  Over the last year I have stayed at about 7 different hotels for at least a week a piece in the Houston Northwest area.   My opinion is that the Sleep Inn offers the most comfortable experience for the rate of any other options in the area.
+The hotels in the immediate region catering to average business traveler average around $90-$180 nightly for a standard room.  The Sleep Inn usually comes in around $100.
+The hotel staff is very friendly, and extremely accommodating to visitors.   Excellent customer service.
+In my opinion it has the most comfortable, well decorated and functional room of any of the business traveler options in the area.  All of the rooms are immaculate, and have a very tasteful and modern decor.  Much more so then some of the highest end hotel options in the area.  It is very impressive.
+The rooms come with a long, functional desk with high speed internet cable on the left and a 32'' flat screen TV on the right.  The set up for this is fantastic, as I can work on my computer plugged into the internet, and if I want run an HDMI cable from the computer to the TV to export the image I easily can.  This sounds simple, but in practice this is the only hotel room in the area that has such a practical and functional...I travel to Houston Northwest area 5-10 days a month on business.  Over the last year I have stayed at about 7 different hotels for at least a week a piece in the Houston Northwest area.   My opinion is that the Sleep Inn offers the most comfortable experience for the rate of any other options in the area.The hotels in the immediate region catering to average business traveler average around $90-$180 nightly for a standard room.  The Sleep Inn usually comes in around $100.The hotel staff is very friendly, and extremely accommodating to visitors.   Excellent customer service.In my opinion it has the most comfortable, well decorated and functional room of any of the business traveler options in the area.  All of the rooms are immaculate, and have a very tasteful and modern decor.  Much more so then some of the highest end hotel options in the area.  It is very impressive.The rooms come with a long, functional desk with high speed internet cable on the left and a 32'' flat screen TV on the right.  The set up for this is fantastic, as I can work on my computer plugged into the internet, and if I want run an HDMI cable from the computer to the TV to export the image I easily can.  This sounds simple, but in practice this is the only hotel room in the area that has such a practical and functional set up.    Other features: Very comfortable bed, gorgeous bathroom with marble counter tops, microwave and refrigerator in a nook so I can put some groceries there for the week, very quiet and peaceful at all times.Cons: The internet, while reasonably fast for a hotel, does seem to get a bit inconsistent with it's speed.  Still on the higher end of the hotel internet spectrum, though.    Also my room in the most recent stay did not have a bath tub but a standing shower, which is a minor quibble (and maybe preferable to some).Overall: Far exceeds expectations.  Great room, especially in the context of the price.  I have stayed here on two separate week long trips, and not been disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Mike P, Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>I travel to Houston Northwest area 5-10 days a month on business.  Over the last year I have stayed at about 7 different hotels for at least a week a piece in the Houston Northwest area.   My opinion is that the Sleep Inn offers the most comfortable experience for the rate of any other options in the area.
+The hotels in the immediate region catering to average business traveler average around $90-$180 nightly for a standard room.  The Sleep Inn usually comes in around $100.
+The hotel staff is very friendly, and extremely accommodating to visitors.   Excellent customer service.
+In my opinion it has the most comfortable, well decorated and functional room of any of the business traveler options in the area.  All of the rooms are immaculate, and have a very tasteful and modern decor.  Much more so then some of the highest end hotel options in the area.  It is very impressive.
+The rooms come with a long, functional desk with high speed internet cable on the left and a 32'' flat screen TV on the right.  The set up for this is fantastic, as I can work on my computer plugged into the internet, and if I want run an HDMI cable from the computer to the TV to export the image I easily can.  This sounds simple, but in practice this is the only hotel room in the area that has such a practical and functional...I travel to Houston Northwest area 5-10 days a month on business.  Over the last year I have stayed at about 7 different hotels for at least a week a piece in the Houston Northwest area.   My opinion is that the Sleep Inn offers the most comfortable experience for the rate of any other options in the area.The hotels in the immediate region catering to average business traveler average around $90-$180 nightly for a standard room.  The Sleep Inn usually comes in around $100.The hotel staff is very friendly, and extremely accommodating to visitors.   Excellent customer service.In my opinion it has the most comfortable, well decorated and functional room of any of the business traveler options in the area.  All of the rooms are immaculate, and have a very tasteful and modern decor.  Much more so then some of the highest end hotel options in the area.  It is very impressive.The rooms come with a long, functional desk with high speed internet cable on the left and a 32'' flat screen TV on the right.  The set up for this is fantastic, as I can work on my computer plugged into the internet, and if I want run an HDMI cable from the computer to the TV to export the image I easily can.  This sounds simple, but in practice this is the only hotel room in the area that has such a practical and functional set up.    Other features: Very comfortable bed, gorgeous bathroom with marble counter tops, microwave and refrigerator in a nook so I can put some groceries there for the week, very quiet and peaceful at all times.Cons: The internet, while reasonably fast for a hotel, does seem to get a bit inconsistent with it's speed.  Still on the higher end of the hotel internet spectrum, though.    Also my room in the most recent stay did not have a bath tub but a standing shower, which is a minor quibble (and maybe preferable to some).Overall: Far exceeds expectations.  Great room, especially in the context of the price.  I have stayed here on two separate week long trips, and not been disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r128680648-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128680648</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Great Place Right Off Hwy 290/NW Freeway</t>
+  </si>
+  <si>
+    <t>Pros:- Free breakfast- Flat screen TV- Kind staff- Spacious bathrooms- Free Wall Street Journal- Marble countertops in room and bathroom- Huge desk- Very cold thermostat (for spring/summer)- Safe environment (business and retail)- New construction- Clean throughout- Large rooms- Fair rate ($85 ChoiceHotels.com)- Micro-fridge in room- Comfortable beds- Very quiet!- Very near many restaurants- Beautiful lobbyCons:- Unable to connect to wi-fi (but wired connection worked fine)Summary:- A great place to stay on this side of Houston.  Highly recommend!!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r126890809-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126890809</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service! Excellent Place to Stay!</t>
+  </si>
+  <si>
+    <t>My company reserved some rooms in this hotel for me and some co-workers. We were in town for a business conference. Since I could not find any other reviews on TA, I was a little nervous. However, all worries went away as soon as I walked in through the doors. 
+Lobby/Check-In: Excellent, clean, and welcoming. The front desk guy checked us all in. When he got to my reservation, he said that my room wasn't covered by the corporate reservation, although the reservation was in the same group. He immediately handled it without any hesitation and handed me my room card. Excellent!
+Room: Gorgeous! I was in the King Suite on the 3rd floor. The bedding was nice. It had a thin down comforter which was a great addition. The office desk was very nice-sized with a plug-in internet or wifi. The room included a mini-fridge, microwave, coffee maker, etc..  There was a love seat which is also a pull-out bed. The regular King rooms (non-suite) are slightly smaller. The King Suite is definitely more spacious.
+Bathroom:  The bathroom was nicely decorated. Had a shallow tub with the normal toiletries. However, my co-workers said they were in a regular King room (not the suite) and they all had walk-in showers, not a tub. So if you want a tub, you'll have to reserve a King Suite, not a normal King room.
+Breakfast: The complimentary breakfast was the typical hotel breakfast....My company reserved some rooms in this hotel for me and some co-workers. We were in town for a business conference. Since I could not find any other reviews on TA, I was a little nervous. However, all worries went away as soon as I walked in through the doors. Lobby/Check-In: Excellent, clean, and welcoming. The front desk guy checked us all in. When he got to my reservation, he said that my room wasn't covered by the corporate reservation, although the reservation was in the same group. He immediately handled it without any hesitation and handed me my room card. Excellent!Room: Gorgeous! I was in the King Suite on the 3rd floor. The bedding was nice. It had a thin down comforter which was a great addition. The office desk was very nice-sized with a plug-in internet or wifi. The room included a mini-fridge, microwave, coffee maker, etc..  There was a love seat which is also a pull-out bed. The regular King rooms (non-suite) are slightly smaller. The King Suite is definitely more spacious.Bathroom:  The bathroom was nicely decorated. Had a shallow tub with the normal toiletries. However, my co-workers said they were in a regular King room (not the suite) and they all had walk-in showers, not a tub. So if you want a tub, you'll have to reserve a King Suite, not a normal King room.Breakfast: The complimentary breakfast was the typical hotel breakfast. Sausage, bacon, yogurt, waffles, breads, etc.. It would have been nice if there were some scrambled eggs or something. But it was nice to have something to snack on in the morning.Small Issue: Only problem I had was at one point card key no longer worked. After getting the card re-keyed the lock still didn't work. I went downstairs again and the front desk guy said he'd send someone up. As I went back upstairs my co-worker's door lock had the same issue. Some guy popped out into the hallway from a couple doors down and said "You can't get into your room either?" He then pulled a key card from his pocket and put it in the door and it unlocked. He was wearing basketball shorts and a t-shirt and just randomly had a key card to open any door??? A little concerning, especially since he didn't introduce himself as an employee. But he was and then he walked over to my door and said the battery was completely dead. A few minutes later he came back with a battery charger and unlocked my room door. I had to leave for dinner, so I left him in my room fixing my door. Upon my return, the front desk guy gave me a new key card. I went up to my room and everything was as it was when I left. My personal belongings were untouched, including the jewelry I left on the desk. It was nice to be in a hotel where you can trust the employees. I would highly recommend this place to anyone who is looking for a room in this area. The CS is great, the rooms are nice, and I had a good night sleep. I really enjoyed my stay. If you have any questions, don't hesitate to email me! Also, I took some pictures (posted).Sorry for the long story above, but I just wanted to let you know about how quickly the staff handled my door issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>My company reserved some rooms in this hotel for me and some co-workers. We were in town for a business conference. Since I could not find any other reviews on TA, I was a little nervous. However, all worries went away as soon as I walked in through the doors. 
+Lobby/Check-In: Excellent, clean, and welcoming. The front desk guy checked us all in. When he got to my reservation, he said that my room wasn't covered by the corporate reservation, although the reservation was in the same group. He immediately handled it without any hesitation and handed me my room card. Excellent!
+Room: Gorgeous! I was in the King Suite on the 3rd floor. The bedding was nice. It had a thin down comforter which was a great addition. The office desk was very nice-sized with a plug-in internet or wifi. The room included a mini-fridge, microwave, coffee maker, etc..  There was a love seat which is also a pull-out bed. The regular King rooms (non-suite) are slightly smaller. The King Suite is definitely more spacious.
+Bathroom:  The bathroom was nicely decorated. Had a shallow tub with the normal toiletries. However, my co-workers said they were in a regular King room (not the suite) and they all had walk-in showers, not a tub. So if you want a tub, you'll have to reserve a King Suite, not a normal King room.
+Breakfast: The complimentary breakfast was the typical hotel breakfast....My company reserved some rooms in this hotel for me and some co-workers. We were in town for a business conference. Since I could not find any other reviews on TA, I was a little nervous. However, all worries went away as soon as I walked in through the doors. Lobby/Check-In: Excellent, clean, and welcoming. The front desk guy checked us all in. When he got to my reservation, he said that my room wasn't covered by the corporate reservation, although the reservation was in the same group. He immediately handled it without any hesitation and handed me my room card. Excellent!Room: Gorgeous! I was in the King Suite on the 3rd floor. The bedding was nice. It had a thin down comforter which was a great addition. The office desk was very nice-sized with a plug-in internet or wifi. The room included a mini-fridge, microwave, coffee maker, etc..  There was a love seat which is also a pull-out bed. The regular King rooms (non-suite) are slightly smaller. The King Suite is definitely more spacious.Bathroom:  The bathroom was nicely decorated. Had a shallow tub with the normal toiletries. However, my co-workers said they were in a regular King room (not the suite) and they all had walk-in showers, not a tub. So if you want a tub, you'll have to reserve a King Suite, not a normal King room.Breakfast: The complimentary breakfast was the typical hotel breakfast. Sausage, bacon, yogurt, waffles, breads, etc.. It would have been nice if there were some scrambled eggs or something. But it was nice to have something to snack on in the morning.Small Issue: Only problem I had was at one point card key no longer worked. After getting the card re-keyed the lock still didn't work. I went downstairs again and the front desk guy said he'd send someone up. As I went back upstairs my co-worker's door lock had the same issue. Some guy popped out into the hallway from a couple doors down and said "You can't get into your room either?" He then pulled a key card from his pocket and put it in the door and it unlocked. He was wearing basketball shorts and a t-shirt and just randomly had a key card to open any door??? A little concerning, especially since he didn't introduce himself as an employee. But he was and then he walked over to my door and said the battery was completely dead. A few minutes later he came back with a battery charger and unlocked my room door. I had to leave for dinner, so I left him in my room fixing my door. Upon my return, the front desk guy gave me a new key card. I went up to my room and everything was as it was when I left. My personal belongings were untouched, including the jewelry I left on the desk. It was nice to be in a hotel where you can trust the employees. I would highly recommend this place to anyone who is looking for a room in this area. The CS is great, the rooms are nice, and I had a good night sleep. I really enjoyed my stay. If you have any questions, don't hesitate to email me! Also, I took some pictures (posted).Sorry for the long story above, but I just wanted to let you know about how quickly the staff handled my door issue.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1017,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1049,1414 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_571.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_571.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r599516618-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1556786</t>
+  </si>
+  <si>
+    <t>599516618</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>I was here few weeks ago and this was a perfect stay for me. Location was very easy to go in and out even with the construction. The staff is very polite and friendly, breakfast was excellent and wifi worked perfect. There are plenty of restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r588831330-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588831330</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great Value, excellent Location</t>
+  </si>
+  <si>
+    <t>This hotel we found was in perfect location to our office. There are plenty of restaurants within walking distance to where i did not have to drive. Room was clean and smelling fresh. Great staff who also prepared hot breakfast. I will return to this hotel soon.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r578684844-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1556786</t>
-  </si>
-  <si>
     <t>578684844</t>
   </si>
   <si>
@@ -198,12 +237,6 @@
     <t>I was a little hesitant about this place at first when I booked. I was coming in for business and I wanted a place close to my customer. There were several options to choose from and this place was one of the least expensive so that can sometimes be a red flag. I was very pleasantly surprised though.  The room was clean and the staff was great.  Mudit Sharma who was on duty really went out of his way to help me with anything I asked for.</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r553064628-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -222,6 +255,45 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r512893181-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512893181</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Nice one</t>
+  </si>
+  <si>
+    <t>Spacious room, comfortable bed, intriguing shower design.  Not bad at all.  The breakfast had many items not typically at a hotel.  You can even grab cereal or fruit throughout the day.  Pool had some debris on the bottom yet was still fairly clean.  My only issue was price.  I booked in advance then the price went down.  The desk person was going to give me a price close to the current rate, but we then found the card had already been charged the original price.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r478370713-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478370713</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Wonderful!!</t>
+  </si>
+  <si>
+    <t>Very nice! Our room was clean, modern and spacious. Friendly and helpful staff. Good breakfast with eggs, meat, waffles plus the usual. Minutes from downtown and only a $7 trip with Uber. The parking lot was fenced and well lit.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r471279636-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,6 +351,39 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r394050180-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394050180</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel surrounded by a cinema, restaurants at walking distance. The staff is very kind, breakfast is excellent, I loved the gravy with sausage on the biscuit. The Wi-Fi is fast and they also have a very nice outdoor pool</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r389922042-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389922042</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Forth of July in space city!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We visited this hotel again as we spent our 4th of July in Houston. The staff remembered us from previous visits and we also had upgraded room. It's in a great spot with plenty of restaurants and uber ride to and from downtown to watch fireworks was easy. Looks like they have added more items to breakfast. We also had chance to swim in the pool. It was very nice and clean just like our room. We will see them soon again. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r384111770-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -297,9 +402,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We arrived to the hotel at night and there was a lot of road construction going on around Houston and it made it difficult to get to the hotel. There was a lot of restaurants close by for us to choose from to eat at, which was great.Check in was easy as can be. My wife and I were really pleased with the cleanliness of the room. The Bathroom was also clean and ready for us to use. Our room was a non smoking room, I am not sure if all rooms are non smoking or not. In the morning we went to breakfast on the 1st floor. The were well organized, clean and had plenty of food for everyone.The only thing that was wrong with the room was the one picture that was not level above the bed. I feel this hotel was a great choice for us and I am sure it will be for you too.More</t>
   </si>
   <si>
@@ -342,6 +444,51 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r361439956-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361439956</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Great location with excellent service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great location to places I needed to visit. I was here for four days, plenty of restaurants nearby that I could walk to. Many options from Twin Peaks, Brick House, Hooters and Papasitos. There was also a movie theater where I caught the batman vs superman movie. Excellent comfy beds to amazing Hot breakfast for the price. I will definitely start staying here from now on when I visit houston. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r314151332-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314151332</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent Wifi, good TV but no plates</t>
+  </si>
+  <si>
+    <t>The hotel has a comfy bed, the wifi is super fast (100meg link) and there are large TV's, the tv's uses coax and is not HD, that's a shame as there are large HD TV's in every room. The hotel is clean. Brekfest is served. My room had a microwave and fridge, but no plates the mirrors looked excellent, espeically with me in them bathroom cleanliftsphonesMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Mehul P, General Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>The hotel has a comfy bed, the wifi is super fast (100meg link) and there are large TV's, the tv's uses coax and is not HD, that's a shame as there are large HD TV's in every room. The hotel is clean. Brekfest is served. My room had a microwave and fridge, but no plates the mirrors looked excellent, espeically with me in them bathroom cleanliftsphonesMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r281703275-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -399,6 +546,48 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r207007053-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207007053</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Horrible DO NOT STAY Here!</t>
+  </si>
+  <si>
+    <t>Beware!!! Do not stay here unless you love the smell of strong moth balls. We were booked for five nights but left at 6 am the next morning. appeared fairly clean but had very strong moth balls at the check in desk, lobby and elevators! I have asthma and it about killed me.  I contacted Choice Hotels but I have Not heard from the choice hotels yet and that was on the15th of May- still waiting. THeir form email says they will contact you within 72 hrs. No customer service -night clerk very rude and un caring. Cancelled  reservation an went to Hampton Inn. Will contact Houston code compliance as I'm sure it is against all codes to use moth balls as an air freshener(that is what the desk clerk said the moth balls were for) Moth balls are poison!.Stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinn290, Guest Relations Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Beware!!! Do not stay here unless you love the smell of strong moth balls. We were booked for five nights but left at 6 am the next morning. appeared fairly clean but had very strong moth balls at the check in desk, lobby and elevators! I have asthma and it about killed me.  I contacted Choice Hotels but I have Not heard from the choice hotels yet and that was on the15th of May- still waiting. THeir form email says they will contact you within 72 hrs. No customer service -night clerk very rude and un caring. Cancelled  reservation an went to Hampton Inn. Will contact Houston code compliance as I'm sure it is against all codes to use moth balls as an air freshener(that is what the desk clerk said the moth balls were for) Moth balls are poison!.Stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r188452679-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188452679</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>I would stay here again, the location is good. Several restaurants and watering holes you can walk to. It's not a Marriott but it was sufficient for business stay. Room clean and comfortable.Front desk was helpful and professional.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r186768490-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -457,6 +646,42 @@
   </si>
   <si>
     <t>I stayed at this Sleep Inn for one night.  Most of Houston was sold out that night, but this hotel still had rooms for an affordable price.  This hotel seems to be brand new!  The first thing I noticed was the front desk staff should be standing up while helping guests. If I, the tired and worn guest, has to stand up while waiting to checking in, you should too. I feel it is unprofessional. The room was very clean and the bathroom was spotless.  I did like the layout of the room.  The work desk and TV are on the same table.  Plenty of lighting.  The walls were dirty and needed to be deep cleaned.  I believe they use the paint that easily reflects marks and damages.  Bed and linens were wonderful and provided a great sleep, true to the hotel's name.  The pool needed to be vacuumed badly as the floor was very dirty with leaves and sand. Other than that, the pool area was nice and relaxing All exterior locks worked.  Plenty of parking.  Also, there are many restaurants nearby within walking distance and a movie theater behind the hotel.  The breakfast was cleaned up at least 15 minutes before the official closing time which is unfortunate and untrue to the signage. This is probably the best hotel for the money in the area and I would stay here again (wish I extended my stay)!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r161451982-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161451982</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>An OK experience</t>
+  </si>
+  <si>
+    <t>Stayed at the Sleep Inn Hwy 290 for three nights on business.  Overall the experience was fine but I wouldn't go out of my way to stay here again when in the area.The number of television stations is very limited - including no NBC network.  None of the few cable channels are in HD which defeats the purpose of having a nice flat screen television.There was mildew in my bathroom on the ceiling and around the exhaust vent.  The towels, while clean, were definitely showing their age and need to be replaced.  Two lightbulbs in my room did not function.The hotel is in a busy location and within easy walking distance of several restaurants and a Cinemark Tinseltown theater.  The hotel is very close to the freeway so ask for a room on the north side of the hotel for less road noise.  The free breakfast was ok and included standard options.   The staff were nice and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the Sleep Inn Hwy 290 for three nights on business.  Overall the experience was fine but I wouldn't go out of my way to stay here again when in the area.The number of television stations is very limited - including no NBC network.  None of the few cable channels are in HD which defeats the purpose of having a nice flat screen television.There was mildew in my bathroom on the ceiling and around the exhaust vent.  The towels, while clean, were definitely showing their age and need to be replaced.  Two lightbulbs in my room did not function.The hotel is in a busy location and within easy walking distance of several restaurants and a Cinemark Tinseltown theater.  The hotel is very close to the freeway so ask for a room on the north side of the hotel for less road noise.  The free breakfast was ok and included standard options.   The staff were nice and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r159968242-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159968242</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>A convenient place to stay</t>
+  </si>
+  <si>
+    <t>Right on the feeder. close to many places to eat. The rooms were very clean neat and organized. Nice flat screen TV. Bed were nice with the comforters.room appeared to be recently updated. Would gladly stay here again. Enjoyed the small workout area. Staff we're out going and easy to deal with and they took care of all problems or questions that I had. Check in was quick and easy. Parking lot was well lit and seems safe.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r156005723-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
@@ -544,6 +769,48 @@
     <t>My company has a negotiated rate with a "better known" hotel across the freeway, but it doesn't include breakfast, so this was actually a better deal.  New construction is always nice, and the rooms, common areas and corridors smell clean and are well appointed.The WiFi didn't hold in the breakfast room but I didn't try it in my room.  Breakfast could have been better stocked (no yogurt, cereal and juices were scraping bottom) but I didn't go hungry with the whimsical Texas waffle and bacon (mmmm, meat candy)....  Location is great, there are several restaurants right in front of the hotel.  When you're away from home, it's nice to be able to kick back at a sports bar and walk back to the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r140298819-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140298819</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Great Place to stay with Family</t>
+  </si>
+  <si>
+    <t>My hubby and I stayed here one night with our 3 children.  We had missed our connection flight back home and there was no other flights until the following evening.  The airline put us in this hotel.  They have an hourly airport shuttle.  The pools were nice.  The complimentary breakfast was a plus.  The hotel allowed us to stay a little longer than check-out time due to our flight not being until the evening.  Staff was nice and friendly.  I would recommend for a night our two, but not any longer than that.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r138149444-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138149444</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Iam from Orange County, Ca.  I absolutely, love this place.  Most importantly the rooms are clean, and is very quiet. The front desk employees are very professional.  Next time I come to visit Houston, I know where to stay. Thank you, for and have and outstanding hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike P, Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Iam from Orange County, Ca.  I absolutely, love this place.  Most importantly the rooms are clean, and is very quiet. The front desk employees are very professional.  Next time I come to visit Houston, I know where to stay. Thank you, for and have and outstanding hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1556786-r131410189-Sleep_Inn_Suites_Hwy_290_NW_Freeway-Houston_Texas.html</t>
   </si>
   <si>
@@ -564,12 +831,6 @@
   </si>
   <si>
     <t>June 2012</t>
-  </si>
-  <si>
-    <t>Mike P, Manager at Sleep Inn &amp; Suites Hwy 290 / NW Freeway, responded to this reviewResponded October 1, 2012</t>
-  </si>
-  <si>
-    <t>Responded October 1, 2012</t>
   </si>
   <si>
     <t>I travel to Houston Northwest area 5-10 days a month on business.  Over the last year I have stayed at about 7 different hotels for at least a week a piece in the Houston Northwest area.   My opinion is that the Sleep Inn offers the most comfortable experience for the rate of any other options in the area.
@@ -1158,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1167,18 +1428,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1194,7 +1461,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1203,32 +1470,32 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1239,7 +1506,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1255,7 +1522,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1264,45 +1531,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1339,20 +1600,24 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1375,7 +1640,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1384,39 +1649,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1432,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1441,39 +1712,45 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1498,45 +1775,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1552,7 +1823,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1561,45 +1832,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1615,7 +1880,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1624,45 +1889,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1678,7 +1937,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1687,25 +1946,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1719,7 +1978,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1735,7 +1994,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1744,37 +2003,35 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>116</v>
       </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1782,7 +2039,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1798,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1807,49 +2064,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1865,7 +2112,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1874,41 +2121,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1916,7 +2159,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1932,7 +2175,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1941,33 +2184,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>134</v>
       </c>
-      <c r="J15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1975,7 +2222,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1991,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2000,41 +2247,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>141</v>
       </c>
-      <c r="J16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2042,7 +2285,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -2058,7 +2301,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2067,49 +2310,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2125,7 +2358,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2134,53 +2367,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -2196,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2205,53 +2434,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>160</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
         <v>161</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2267,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2276,53 +2491,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>176</v>
-      </c>
-      <c r="X20" t="s">
-        <v>177</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -2338,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2347,28 +2554,28 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
@@ -2381,7 +2588,7 @@
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2389,7 +2596,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
@@ -2405,7 +2612,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2414,49 +2621,991 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
       <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>235</v>
+      </c>
+      <c r="X31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>256</v>
+      </c>
+      <c r="X33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>256</v>
+      </c>
+      <c r="X34" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60343</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
